--- a/input_data/input_data_gcs.xlsx
+++ b/input_data/input_data_gcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177DB4DD-0055-4CA7-8D5F-586646831BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AFA155-B3EF-4A7B-AD3A-9A2A4E55EA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-46920" yWindow="-10125" windowWidth="18240" windowHeight="28440" tabRatio="796" firstSheet="12" activeTab="19" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" firstSheet="8" activeTab="19" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="99">
   <si>
     <t>node</t>
   </si>
@@ -82,9 +82,6 @@
     <t>elc</t>
   </si>
   <si>
-    <t>dh</t>
-  </si>
-  <si>
     <t>is_inflow</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>conversion_coeff</t>
   </si>
   <si>
-    <t>dh2</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -175,18 +169,12 @@
     <t>s2</t>
   </si>
   <si>
-    <t>s3</t>
-  </si>
-  <si>
     <t>npe,s1</t>
   </si>
   <si>
     <t>npe,s2</t>
   </si>
   <si>
-    <t>npe,s3</t>
-  </si>
-  <si>
     <t>start_cost</t>
   </si>
   <si>
@@ -250,18 +238,12 @@
     <t>npe,up,s2</t>
   </si>
   <si>
-    <t>npe,up,s3</t>
-  </si>
-  <si>
     <t>npe,dw,s1</t>
   </si>
   <si>
     <t>npe,dw,s2</t>
   </si>
   <si>
-    <t>npe,dw,s3</t>
-  </si>
-  <si>
     <t>max_online</t>
   </si>
   <si>
@@ -307,43 +289,67 @@
     <t>c_online,o_proc,s2</t>
   </si>
   <si>
-    <t>c_online,o_proc,s3</t>
-  </si>
-  <si>
     <t>c_online,ngchp,s1</t>
   </si>
   <si>
     <t>c_online,ngchp,s2</t>
   </si>
   <si>
-    <t>c_online,ngchp,s3</t>
-  </si>
-  <si>
     <t>c_online,s1</t>
   </si>
   <si>
     <t>c_online,s2</t>
   </si>
   <si>
-    <t>c_online,s3</t>
-  </si>
-  <si>
-    <t>c_state,s1</t>
-  </si>
-  <si>
-    <t>c_state,s2</t>
-  </si>
-  <si>
-    <t>c_state,s3</t>
-  </si>
-  <si>
-    <t>c_state,elc,s1</t>
-  </si>
-  <si>
-    <t>c_state,elc,s2</t>
-  </si>
-  <si>
-    <t>c_state,elc,s3</t>
+    <t>snode</t>
+  </si>
+  <si>
+    <t>s_c</t>
+  </si>
+  <si>
+    <t>s_dc</t>
+  </si>
+  <si>
+    <t>c_state,snode,s1</t>
+  </si>
+  <si>
+    <t>c_state,snode,s2</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>st</t>
+  </si>
+  <si>
+    <t>test_proc</t>
+  </si>
+  <si>
+    <t>c_flow_eq</t>
+  </si>
+  <si>
+    <t>c_flow_gt</t>
+  </si>
+  <si>
+    <t>c_flow_st</t>
+  </si>
+  <si>
+    <t>c_flow_eq,test_proc,elc,s1</t>
+  </si>
+  <si>
+    <t>c_flow_eq,test_proc,elc,s2</t>
+  </si>
+  <si>
+    <t>c_flow_gt,test_proc,elc,s1</t>
+  </si>
+  <si>
+    <t>c_flow_gt,test_proc,elc,s2</t>
+  </si>
+  <si>
+    <t>c_flow_st,test_proc,elc,s1</t>
+  </si>
+  <si>
+    <t>c_flow_st,test_proc,elc,s2</t>
   </si>
 </sst>
 </file>
@@ -736,7 +742,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -901,7 +907,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F1048576"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -912,7 +918,7 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1105,10 +1111,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1292,57 +1298,57 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="E1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E2" s="6">
         <v>0</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1397,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1410,21 +1416,18 @@
     <col min="3" max="4" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1435,11 +1438,8 @@
       <c r="C2">
         <v>72</v>
       </c>
-      <c r="D2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1450,11 +1450,8 @@
       <c r="C3">
         <v>90</v>
       </c>
-      <c r="D3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1465,11 +1462,8 @@
       <c r="C4">
         <v>87</v>
       </c>
-      <c r="D4">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -1480,71 +1474,68 @@
       <c r="C5">
         <v>76.5</v>
       </c>
-      <c r="D5">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
@@ -1612,43 +1603,37 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817FDE8F-BC70-48D0-8376-FB52E6946AF1}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+      <selection activeCell="G1" activeCellId="1" sqref="D1:D1048576 G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.33203125" customWidth="1"/>
-    <col min="5" max="7" width="11.6640625" customWidth="1"/>
+    <col min="2" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="5" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1662,23 +1647,15 @@
         <v>79.2</v>
       </c>
       <c r="D2">
-        <f>1.1*market_prices!D2</f>
-        <v>26.400000000000002</v>
-      </c>
-      <c r="E2">
         <f>0.9*market_prices!B2</f>
         <v>43.2</v>
       </c>
-      <c r="F2">
+      <c r="E2">
         <f>0.9*market_prices!C2</f>
         <v>64.8</v>
       </c>
-      <c r="G2">
-        <f>0.9*market_prices!D2</f>
-        <v>21.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1692,23 +1669,15 @@
         <v>99.000000000000014</v>
       </c>
       <c r="D3">
-        <f>1.1*market_prices!D3</f>
-        <v>33</v>
-      </c>
-      <c r="E3">
         <f>0.9*market_prices!B3</f>
         <v>54</v>
       </c>
-      <c r="F3">
+      <c r="E3">
         <f>0.9*market_prices!C3</f>
         <v>81</v>
       </c>
-      <c r="G3">
-        <f>0.9*market_prices!D3</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1722,23 +1691,15 @@
         <v>95.7</v>
       </c>
       <c r="D4">
-        <f>1.1*market_prices!D4</f>
-        <v>31.900000000000002</v>
-      </c>
-      <c r="E4">
         <f>0.9*market_prices!B4</f>
         <v>52.2</v>
       </c>
-      <c r="F4">
+      <c r="E4">
         <f>0.9*market_prices!C4</f>
         <v>78.3</v>
       </c>
-      <c r="G4">
-        <f>0.9*market_prices!D4</f>
-        <v>26.1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -1752,83 +1713,75 @@
         <v>84.15</v>
       </c>
       <c r="D5">
-        <f>1.1*market_prices!D5</f>
-        <v>28.05</v>
-      </c>
-      <c r="E5">
         <f>0.9*market_prices!B5</f>
         <v>45.9</v>
       </c>
-      <c r="F5">
+      <c r="E5">
         <f>0.9*market_prices!C5</f>
         <v>68.850000000000009</v>
       </c>
-      <c r="G5">
-        <f>0.9*market_prices!D5</f>
-        <v>22.95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
@@ -1909,15 +1862,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -1925,7 +1878,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1938,44 +1891,36 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4">
-        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -1998,7 +1943,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2172,7 +2117,7 @@
   <sheetData>
     <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -2327,10 +2272,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2342,24 +2287,24 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2370,22 +2315,67 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f>D3</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D6" si="0">D4</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2398,7 +2388,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2425,13 +2415,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
@@ -2443,13 +2433,13 @@
         <v>5</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -2519,21 +2509,52 @@
         <v>3</v>
       </c>
       <c r="J3" s="6">
+        <v>4</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1E-3</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
         <v>10</v>
       </c>
-      <c r="K3">
+      <c r="H4" s="6">
+        <v>3</v>
+      </c>
+      <c r="I4" s="6">
+        <v>3</v>
+      </c>
+      <c r="J4" s="6">
+        <v>4</v>
+      </c>
+      <c r="K4" s="6">
         <v>1E-3</v>
       </c>
-      <c r="L3" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" s="6"/>
@@ -2581,10 +2602,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2592,36 +2613,36 @@
     <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" t="s">
         <v>85</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>86</v>
       </c>
-      <c r="G1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" t="s">
-        <v>88</v>
-      </c>
-      <c r="I1" t="s">
-        <v>89</v>
-      </c>
       <c r="J1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K1" t="s">
         <v>94</v>
@@ -2633,16 +2654,13 @@
         <v>96</v>
       </c>
       <c r="N1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="O1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -2660,40 +2678,37 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H2">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="J2">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -2711,40 +2726,37 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H3">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I3">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="J3">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -2762,40 +2774,37 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="J4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="O4">
-        <v>-5</v>
-      </c>
-      <c r="P4">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -2813,100 +2822,97 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H5">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="J5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
@@ -2967,6 +2973,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2987,7 +2994,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -3144,7 +3151,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3164,57 +3171,57 @@
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -3264,7 +3271,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
@@ -3313,55 +3320,154 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
+      <c r="A4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
+      <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B7" s="6"/>
@@ -3414,13 +3520,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3440,7 +3546,7 @@
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2">
         <v>1</v>
@@ -3489,10 +3595,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A86A8A7-FD76-4891-A53C-CBB095359118}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3510,36 +3616,36 @@
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>7</v>
@@ -3562,10 +3668,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
@@ -3588,10 +3694,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
@@ -3614,10 +3720,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>8</v>
@@ -3635,6 +3741,162 @@
         <v>1</v>
       </c>
       <c r="H5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>10</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>10</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3646,10 +3908,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AEF404-3743-47D7-AC45-7AE3A9FB796E}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+      <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3657,102 +3919,96 @@
     <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
@@ -3829,10 +4085,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3857,7 +4113,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F1"/>
     </row>

--- a/input_data/input_data_gcs.xlsx
+++ b/input_data/input_data_gcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5AFA155-B3EF-4A7B-AD3A-9A2A4E55EA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B9570A-D6F4-4404-87F9-AB5120301044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="796" firstSheet="8" activeTab="19" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="8" activeTab="10" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -23,17 +23,18 @@
     <sheet name="reserve_type" sheetId="13" r:id="rId8"/>
     <sheet name="cf" sheetId="7" r:id="rId9"/>
     <sheet name="inflow" sheetId="3" r:id="rId10"/>
-    <sheet name="price" sheetId="4" r:id="rId11"/>
-    <sheet name="markets" sheetId="5" r:id="rId12"/>
-    <sheet name="market_prices" sheetId="8" r:id="rId13"/>
-    <sheet name="balance_prices" sheetId="20" r:id="rId14"/>
-    <sheet name="risk" sheetId="17" r:id="rId15"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId16"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId17"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId18"/>
-    <sheet name="constraints" sheetId="14" r:id="rId19"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId20"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId21"/>
+    <sheet name="inflow_blocks" sheetId="22" r:id="rId11"/>
+    <sheet name="price" sheetId="4" r:id="rId12"/>
+    <sheet name="markets" sheetId="5" r:id="rId13"/>
+    <sheet name="market_prices" sheetId="8" r:id="rId14"/>
+    <sheet name="balance_prices" sheetId="20" r:id="rId15"/>
+    <sheet name="risk" sheetId="17" r:id="rId16"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId17"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId18"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId19"/>
+    <sheet name="constraints" sheetId="14" r:id="rId20"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId21"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="99">
   <si>
     <t>node</t>
   </si>
@@ -735,166 +736,166 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="7"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="7"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="7"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="7"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="7"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
     </row>
   </sheetData>
@@ -910,179 +911,179 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="3" max="4" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="3" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1097,6 +1098,100 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EE7C85-40E5-4EB2-B5A9-90675AEF64FB}">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="E3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02307C1F-427B-487D-B703-EBF512D7AC27}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -1104,12 +1199,12 @@
       <selection activeCell="B6" sqref="B6:B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1117,7 +1212,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1126,7 +1221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1135,7 +1230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1144,7 +1239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -1153,121 +1248,121 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1278,7 +1373,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3788A93-7501-4F5D-9E8F-38D329CC85EC}">
   <dimension ref="A1:K5"/>
   <sheetViews>
@@ -1286,17 +1381,17 @@
       <selection activeCell="A3" sqref="A3:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>27</v>
       </c>
@@ -1331,7 +1426,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
@@ -1366,7 +1461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -1376,7 +1471,7 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1386,7 +1481,7 @@
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1401,7 +1496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -1409,14 +1504,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="4" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="4" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1427,7 +1522,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1439,7 +1534,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1451,7 +1546,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1463,7 +1558,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -1475,121 +1570,121 @@
         <v>76.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1601,7 +1696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817FDE8F-BC70-48D0-8376-FB52E6946AF1}">
   <dimension ref="A1:E25"/>
   <sheetViews>
@@ -1609,14 +1704,14 @@
       <selection activeCell="G1" activeCellId="1" sqref="D1:D1048576 G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.33203125" customWidth="1"/>
-    <col min="4" max="5" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="5" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -1633,7 +1728,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -1655,7 +1750,7 @@
         <v>64.8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -1677,7 +1772,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -1699,7 +1794,7 @@
         <v>78.3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -1721,121 +1816,121 @@
         <v>68.850000000000009</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -1847,7 +1942,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1855,12 +1950,12 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
@@ -1868,7 +1963,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
@@ -1876,7 +1971,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -1889,7 +1984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1897,9 +1992,9 @@
       <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>34</v>
       </c>
@@ -1907,7 +2002,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1915,7 +2010,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1928,7 +2023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -1936,162 +2031,162 @@
       <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2102,7 +2197,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -2110,155 +2205,155 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2267,119 +2362,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
-  <dimension ref="A1:M7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <f>D3</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ref="D5:D6" si="0">D4</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B6" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2391,20 +2373,20 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2442,7 +2424,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -2480,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2518,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>82</v>
       </c>
@@ -2556,7 +2538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -2569,7 +2551,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -2582,7 +2564,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -2601,19 +2583,132 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f>D3</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D6" si="0">D4</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
@@ -2660,7 +2755,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -2708,7 +2803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
@@ -2756,7 +2851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
@@ -2804,7 +2899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
@@ -2852,121 +2947,121 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -2978,7 +3073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
   <dimension ref="A1:A25"/>
   <sheetViews>
@@ -2986,156 +3081,156 @@
       <selection activeCell="B1" sqref="B1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -3154,22 +3249,22 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
     <col min="7" max="7" width="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -3219,7 +3314,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -3269,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -3319,7 +3414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>83</v>
       </c>
@@ -3369,7 +3464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -3419,7 +3514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -3469,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -3486,7 +3581,7 @@
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -3516,9 +3611,9 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -3542,9 +3637,9 @@
       <selection activeCell="I4" sqref="A2:I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -3601,20 +3696,20 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="4"/>
+    <col min="1" max="1" width="7.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -3640,7 +3735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
@@ -3666,7 +3761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -3692,7 +3787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>71</v>
       </c>
@@ -3718,7 +3813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>71</v>
       </c>
@@ -3744,7 +3839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>83</v>
       </c>
@@ -3770,7 +3865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>83</v>
       </c>
@@ -3796,7 +3891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>84</v>
       </c>
@@ -3822,7 +3917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>84</v>
       </c>
@@ -3848,7 +3943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>89</v>
       </c>
@@ -3874,7 +3969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>89</v>
       </c>
@@ -3914,155 +4009,155 @@
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
@@ -4081,9 +4176,9 @@
       <selection activeCell="E10" sqref="A2:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
@@ -4104,20 +4199,20 @@
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
@@ -4125,139 +4220,139 @@
       <c r="F2" s="7"/>
       <c r="L2" s="7"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>

--- a/input_data/input_data_gcs.xlsx
+++ b/input_data/input_data_gcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dsdennis\HOPE\Predicer\input_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B9570A-D6F4-4404-87F9-AB5120301044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA007873-E520-4D4D-BA40-004D7949FB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" firstSheet="8" activeTab="10" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
+    <workbookView xWindow="17880" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="796" activeTab="1" xr2:uid="{788BFBD1-D930-4535-8A91-D85C56924796}"/>
   </bookViews>
   <sheets>
     <sheet name="timeseries" sheetId="18" r:id="rId1"/>
@@ -26,15 +26,16 @@
     <sheet name="inflow_blocks" sheetId="22" r:id="rId11"/>
     <sheet name="price" sheetId="4" r:id="rId12"/>
     <sheet name="markets" sheetId="5" r:id="rId13"/>
-    <sheet name="market_prices" sheetId="8" r:id="rId14"/>
-    <sheet name="balance_prices" sheetId="20" r:id="rId15"/>
-    <sheet name="risk" sheetId="17" r:id="rId16"/>
-    <sheet name="scenarios" sheetId="9" r:id="rId17"/>
-    <sheet name="fixed_ts" sheetId="11" r:id="rId18"/>
-    <sheet name="eff_ts" sheetId="12" r:id="rId19"/>
-    <sheet name="constraints" sheetId="14" r:id="rId20"/>
-    <sheet name="gen_constraint" sheetId="15" r:id="rId21"/>
-    <sheet name="cap_ts" sheetId="16" r:id="rId22"/>
+    <sheet name="reserve_realisation" sheetId="23" r:id="rId14"/>
+    <sheet name="market_prices" sheetId="8" r:id="rId15"/>
+    <sheet name="balance_prices" sheetId="20" r:id="rId16"/>
+    <sheet name="risk" sheetId="17" r:id="rId17"/>
+    <sheet name="scenarios" sheetId="9" r:id="rId18"/>
+    <sheet name="fixed_ts" sheetId="11" r:id="rId19"/>
+    <sheet name="eff_ts" sheetId="12" r:id="rId20"/>
+    <sheet name="constraints" sheetId="14" r:id="rId21"/>
+    <sheet name="gen_constraint" sheetId="15" r:id="rId22"/>
+    <sheet name="cap_ts" sheetId="16" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="101">
   <si>
     <t>node</t>
   </si>
@@ -179,9 +180,6 @@
     <t>start_cost</t>
   </si>
   <si>
-    <t>realisation</t>
-  </si>
-  <si>
     <t>min_online</t>
   </si>
   <si>
@@ -351,6 +349,15 @@
   </si>
   <si>
     <t>c_flow_st,test_proc,elc,s2</t>
+  </si>
+  <si>
+    <t>reserve_product</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>processgroup</t>
   </si>
 </sst>
 </file>
@@ -409,13 +416,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,156 +754,156 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <v>44671</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>44671.041666666664</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <v>44671.08333321759</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <v>44671.124999826388</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
+      <c r="A6" s="6"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
+      <c r="A7" s="6"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
+      <c r="A8" s="6"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
+      <c r="A9" s="6"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
+      <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
+      <c r="A11" s="6"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
+      <c r="A12" s="6"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
+      <c r="A13" s="6"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
+      <c r="A14" s="6"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
+      <c r="A15" s="6"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
+      <c r="A16" s="6"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
+      <c r="A17" s="6"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
+      <c r="A18" s="6"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="A19" s="6"/>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
+      <c r="A20" s="6"/>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
+      <c r="A21" s="6"/>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
+      <c r="A22" s="6"/>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
+      <c r="A23" s="6"/>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
+      <c r="A24" s="6"/>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
+      <c r="A25" s="6"/>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
+      <c r="A26" s="6"/>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
+      <c r="A27" s="6"/>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
+      <c r="A28" s="6"/>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
+      <c r="A29" s="6"/>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
+      <c r="A30" s="6"/>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
+      <c r="A31" s="6"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
+      <c r="A32" s="6"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
+      <c r="A33" s="6"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
+      <c r="A34" s="6"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
+      <c r="A35" s="6"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
+      <c r="A36" s="6"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
+      <c r="A37" s="6"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
+      <c r="A38" s="6"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
+      <c r="A39" s="6"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
+      <c r="A40" s="6"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
+      <c r="A41" s="6"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
+      <c r="A42" s="6"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
+      <c r="A43" s="6"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
+      <c r="A44" s="6"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
+      <c r="A45" s="6"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
+      <c r="A46" s="6"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
+      <c r="A47" s="6"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
+      <c r="A48" s="6"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
+      <c r="A49" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -913,7 +920,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
     <col min="3" max="4" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -923,168 +930,168 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="str">
+      <c r="A6" s="6" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
       <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="str">
+      <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="str">
+      <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="str">
+      <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="str">
+      <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="str">
+      <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="str">
+      <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="str">
+      <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="str">
+      <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="str">
+      <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="str">
+      <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="str">
+      <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="str">
+      <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="str">
+      <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="str">
+      <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="str">
+      <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="str">
+      <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="str">
+      <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="str">
+      <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="str">
+      <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
       </c>
@@ -1101,7 +1108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0EE7C85-40E5-4EB2-B5A9-90675AEF64FB}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1120,29 +1127,29 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="6"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="E4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1175,16 +1182,16 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1201,7 +1208,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1209,11 +1216,11 @@
         <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
@@ -1222,7 +1229,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
@@ -1231,7 +1238,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
@@ -1240,7 +1247,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
@@ -1249,121 +1256,121 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="str">
+      <c r="A6" s="6" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="str">
+      <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="str">
+      <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="str">
+      <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="str">
+      <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="str">
+      <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="str">
+      <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="str">
+      <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="str">
+      <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="str">
+      <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="str">
+      <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="str">
+      <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="str">
+      <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="str">
+      <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="str">
+      <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="str">
+      <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="str">
+      <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="str">
+      <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="str">
+      <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="str">
+      <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
       </c>
@@ -1378,7 +1385,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD5"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1387,7 +1394,7 @@
     <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1404,45 +1411,45 @@
       <c r="D1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>41</v>
+      <c r="E1" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="E2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>33</v>
       </c>
       <c r="G2">
@@ -1451,45 +1458,48 @@
       <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6">
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1497,6 +1507,30 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ED00716-7658-4ADD-9E54-0CDB3EC3D756}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="6.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF6DDD9A-EF34-4108-8532-230729E9C708}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -1506,7 +1540,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="4" width="11.140625" customWidth="1"/>
   </cols>
@@ -1523,7 +1557,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
@@ -1535,7 +1569,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
@@ -1547,7 +1581,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
@@ -1559,7 +1593,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
@@ -1571,121 +1605,121 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="str">
+      <c r="A6" s="6" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="str">
+      <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="str">
+      <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="str">
+      <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="str">
+      <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="str">
+      <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="str">
+      <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="str">
+      <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="str">
+      <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="str">
+      <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="str">
+      <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="str">
+      <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="str">
+      <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="str">
+      <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="str">
+      <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="str">
+      <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="str">
+      <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="str">
+      <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="str">
+      <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="str">
+      <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
       </c>
@@ -1696,12 +1730,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817FDE8F-BC70-48D0-8376-FB52E6946AF1}">
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" activeCellId="1" sqref="D1:D1048576 G1:G1048576"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1716,20 +1750,20 @@
         <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
@@ -1751,7 +1785,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
@@ -1773,7 +1807,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
@@ -1795,7 +1829,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
@@ -1817,121 +1851,121 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="str">
+      <c r="A6" s="6" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="str">
+      <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="str">
+      <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="str">
+      <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="str">
+      <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="str">
+      <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="str">
+      <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="str">
+      <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="str">
+      <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="str">
+      <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="str">
+      <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="str">
+      <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="str">
+      <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="str">
+      <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="str">
+      <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="str">
+      <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="str">
+      <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="str">
+      <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="str">
+      <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="str">
+      <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
       </c>
@@ -1942,7 +1976,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9314D326-256A-435C-AAE3-3517FA836EAE}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -1957,15 +1991,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2">
         <v>0.1</v>
@@ -1973,7 +2007,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1984,7 +2018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A87AD413-E614-48C1-80E1-F1E8236FCBC6}">
   <dimension ref="A1:B3"/>
   <sheetViews>
@@ -2023,7 +2057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31679CA5-0AA2-4F6F-8223-14BF74917F04}">
   <dimension ref="A1:B25"/>
   <sheetViews>
@@ -2033,7 +2067,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2042,325 +2076,157 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
       <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
       <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="str">
+      <c r="A6" s="6" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
       <c r="B6" s="1"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="str">
+      <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
       <c r="B7" s="1"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="str">
+      <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
       <c r="B8" s="1"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="str">
+      <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="str">
+      <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="str">
+      <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="str">
+      <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="str">
+      <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="str">
+      <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="str">
+      <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="str">
+      <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="str">
+      <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="str">
+      <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="str">
+      <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="str">
+      <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="str">
+      <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="str">
+      <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="str">
+      <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="str">
+      <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="str">
+      <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
-  <dimension ref="A1:A25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
-        <v>44671</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
-        <v>44671.041666666664</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
-        <v>44671.08333321759</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
-        <v>44671.124999826388</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="str">
-        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="str">
-        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="str">
-        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="str">
-        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="str">
-        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="str">
-        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="str">
-        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="str">
-        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="str">
-        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="str">
-        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="str">
-        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="str">
-        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="str">
-        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="str">
-        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="str">
-        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="str">
-        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="str">
-        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="str">
-        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="str">
-        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="str">
-        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
-        <v/>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2369,8 +2235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A1B16B-CDA9-46BD-BA51-731AA9327652}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2415,50 +2281,50 @@
         <v>5</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
-        <v>0</v>
-      </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2466,116 +2332,116 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
-        <v>0</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>0</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
         <v>10</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
+        <v>4</v>
+      </c>
+      <c r="I3" s="5">
         <v>3</v>
       </c>
-      <c r="I3" s="6">
-        <v>3</v>
-      </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <v>4</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <v>1E-3</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
+        <v>81</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
         <v>10</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
+        <v>4</v>
+      </c>
+      <c r="I4" s="5">
         <v>3</v>
       </c>
-      <c r="I4" s="6">
-        <v>3</v>
-      </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <v>4</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>1E-3</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2583,11 +2449,179 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD670E02-665B-45B8-BC4E-9596D2C1BC55}">
+  <dimension ref="A1:A25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
+        <v>44671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
+        <v>44671.041666666664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
+        <v>44671.08333321759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
+        <v>44671.124999826388</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="str">
+        <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="str">
+        <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="str">
+        <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="str">
+        <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="str">
+        <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="str">
+        <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="str">
+        <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="str">
+        <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="str">
+        <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="str">
+        <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="str">
+        <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="str">
+        <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="str">
+        <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="str">
+        <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="str">
+        <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="str">
+        <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="str">
+        <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="str">
+        <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="str">
+        <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="str">
+        <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5704FC51-737E-45F9-9A9E-85A96AFE5439}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2602,21 +2636,21 @@
         <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" t="s">
         <v>73</v>
-      </c>
-      <c r="D1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -2627,10 +2661,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -2641,10 +2675,10 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -2656,10 +2690,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2671,10 +2705,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2695,17 +2729,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE12AB76-2BDA-4ACA-A128-8CFB9FB6C8F8}">
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -2713,50 +2747,50 @@
         <v>26</v>
       </c>
       <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
         <v>76</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>77</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>78</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>79</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>80</v>
       </c>
-      <c r="G1" t="s">
-        <v>81</v>
-      </c>
       <c r="H1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" t="s">
         <v>85</v>
       </c>
-      <c r="I1" t="s">
-        <v>86</v>
-      </c>
       <c r="J1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" t="s">
         <v>93</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>94</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>95</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>96</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>97</v>
       </c>
-      <c r="O1" t="s">
-        <v>98</v>
-      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
@@ -2804,7 +2838,7 @@
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
@@ -2852,7 +2886,7 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
@@ -2900,7 +2934,7 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
@@ -2948,121 +2982,121 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="str">
+      <c r="A6" s="6" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="str">
+      <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="str">
+      <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="str">
+      <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="str">
+      <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="str">
+      <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="str">
+      <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="str">
+      <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="str">
+      <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="str">
+      <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="str">
+      <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="str">
+      <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="str">
+      <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="str">
+      <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="str">
+      <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="str">
+      <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="str">
+      <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="str">
+      <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="str">
+      <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="str">
+      <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
       </c>
@@ -3073,17 +3107,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FEDBA5-B0F3-4E9D-9367-08D5F5FA8AEA}">
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1048576"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3093,145 +3127,145 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="str">
+      <c r="A6" s="6" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="str">
+      <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="str">
+      <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="str">
+      <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="str">
+      <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="str">
+      <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="str">
+      <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="str">
+      <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="str">
+      <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="str">
+      <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="str">
+      <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="str">
+      <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="str">
+      <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="str">
+      <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="str">
+      <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="str">
+      <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="str">
+      <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="str">
+      <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="str">
+      <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="str">
+      <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
       </c>
@@ -3246,7 +3280,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3272,7 +3306,7 @@
         <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>13</v>
@@ -3296,307 +3330,307 @@
         <v>40</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="M1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="O1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
         <v>0.9</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>0.3</v>
       </c>
-      <c r="I2" s="6">
-        <v>1</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0</v>
-      </c>
-      <c r="M2" s="6">
-        <v>0</v>
-      </c>
-      <c r="N2" s="6">
-        <v>0</v>
-      </c>
-      <c r="O2" s="6">
-        <v>0</v>
-      </c>
-      <c r="P2" s="6">
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>0</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>0</v>
+      </c>
+      <c r="P2" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="6">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0</v>
-      </c>
-      <c r="F3" s="6">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6">
-        <v>1</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6">
-        <v>1</v>
-      </c>
-      <c r="J3" s="6">
-        <v>0</v>
-      </c>
-      <c r="K3" s="6">
-        <v>0</v>
-      </c>
-      <c r="L3" s="6">
-        <v>0</v>
-      </c>
-      <c r="M3" s="6">
-        <v>0</v>
-      </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
-      <c r="O3" s="6">
-        <v>0</v>
-      </c>
-      <c r="P3" s="6">
+        <v>70</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+      <c r="M3" s="5">
+        <v>0</v>
+      </c>
+      <c r="N3" s="5">
+        <v>0</v>
+      </c>
+      <c r="O3" s="5">
+        <v>0</v>
+      </c>
+      <c r="P3" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="6">
-        <v>0</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>1</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0</v>
-      </c>
-      <c r="M4" s="6">
-        <v>0</v>
-      </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
-      <c r="O4" s="6">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6">
+        <v>82</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <v>1</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
+        <v>83</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>0</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
+        <v>88</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0</v>
+      </c>
+      <c r="M6" s="5">
+        <v>0</v>
+      </c>
+      <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3605,10 +3639,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6007B83A-95ED-43FB-AC05-C8A15D3323E5}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3618,13 +3652,69 @@
         <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>66</v>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3693,7 +3783,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A6" sqref="A6:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3789,7 +3879,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>22</v>
@@ -3815,7 +3905,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>24</v>
@@ -3841,7 +3931,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>22</v>
@@ -3867,13 +3957,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -3893,13 +3983,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -3919,7 +4009,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>24</v>
@@ -3945,7 +4035,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>22</v>
@@ -3971,7 +4061,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>24</v>
@@ -4011,7 +4101,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
@@ -4020,145 +4110,145 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="str">
+      <c r="A6" s="6" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="str">
+      <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="str">
+      <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="str">
+      <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="str">
+      <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="str">
+      <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="str">
+      <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="str">
+      <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="str">
+      <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="str">
+      <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="str">
+      <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="str">
+      <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="str">
+      <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="str">
+      <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="str">
+      <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="str">
+      <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="str">
+      <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="str">
+      <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="str">
+      <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="str">
+      <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
       </c>
@@ -4183,7 +4273,7 @@
         <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4201,7 +4291,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="7" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="6" customWidth="1"/>
     <col min="6" max="6" width="23.140625" customWidth="1"/>
     <col min="12" max="12" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -4213,147 +4303,147 @@
       <c r="F1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="6">
         <f>IF(timeseries!A2&lt;&gt;"",timeseries!A2,"")</f>
         <v>44671</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="F2" s="6"/>
+      <c r="L2" s="6"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <f>IF(timeseries!A3&lt;&gt;"",timeseries!A3,"")</f>
         <v>44671.041666666664</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="6">
         <f>IF(timeseries!A4&lt;&gt;"",timeseries!A4,"")</f>
         <v>44671.08333321759</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="6">
         <f>IF(timeseries!A5&lt;&gt;"",timeseries!A5,"")</f>
         <v>44671.124999826388</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="str">
+      <c r="A6" s="6" t="str">
         <f>IF(timeseries!A6&lt;&gt;"",timeseries!A6,"")</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="str">
+      <c r="A7" s="6" t="str">
         <f>IF(timeseries!A7&lt;&gt;"",timeseries!A7,"")</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="str">
+      <c r="A8" s="6" t="str">
         <f>IF(timeseries!A8&lt;&gt;"",timeseries!A8,"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="str">
+      <c r="A9" s="6" t="str">
         <f>IF(timeseries!A9&lt;&gt;"",timeseries!A9,"")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="str">
+      <c r="A10" s="6" t="str">
         <f>IF(timeseries!A10&lt;&gt;"",timeseries!A10,"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="str">
+      <c r="A11" s="6" t="str">
         <f>IF(timeseries!A11&lt;&gt;"",timeseries!A11,"")</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="str">
+      <c r="A12" s="6" t="str">
         <f>IF(timeseries!A12&lt;&gt;"",timeseries!A12,"")</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="str">
+      <c r="A13" s="6" t="str">
         <f>IF(timeseries!A13&lt;&gt;"",timeseries!A13,"")</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="str">
+      <c r="A14" s="6" t="str">
         <f>IF(timeseries!A14&lt;&gt;"",timeseries!A14,"")</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="str">
+      <c r="A15" s="6" t="str">
         <f>IF(timeseries!A15&lt;&gt;"",timeseries!A15,"")</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="str">
+      <c r="A16" s="6" t="str">
         <f>IF(timeseries!A16&lt;&gt;"",timeseries!A16,"")</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="str">
+      <c r="A17" s="6" t="str">
         <f>IF(timeseries!A17&lt;&gt;"",timeseries!A17,"")</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="str">
+      <c r="A18" s="6" t="str">
         <f>IF(timeseries!A18&lt;&gt;"",timeseries!A18,"")</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="str">
+      <c r="A19" s="6" t="str">
         <f>IF(timeseries!A19&lt;&gt;"",timeseries!A19,"")</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="str">
+      <c r="A20" s="6" t="str">
         <f>IF(timeseries!A20&lt;&gt;"",timeseries!A20,"")</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="str">
+      <c r="A21" s="6" t="str">
         <f>IF(timeseries!A21&lt;&gt;"",timeseries!A21,"")</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="str">
+      <c r="A22" s="6" t="str">
         <f>IF(timeseries!A22&lt;&gt;"",timeseries!A22,"")</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="str">
+      <c r="A23" s="6" t="str">
         <f>IF(timeseries!A23&lt;&gt;"",timeseries!A23,"")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="str">
+      <c r="A24" s="6" t="str">
         <f>IF(timeseries!A24&lt;&gt;"",timeseries!A24,"")</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="str">
+      <c r="A25" s="6" t="str">
         <f>IF(timeseries!A25&lt;&gt;"",timeseries!A25,"")</f>
         <v/>
       </c>
